--- a/src/NITs_digito_verificacion.xlsx
+++ b/src/NITs_digito_verificacion.xlsx
@@ -356,36 +356,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>8</v>
       </c>
       <c r="B1">
-        <f>C1</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C1">
-        <f>A1</f>
-        <v>8</v>
+        <f>B1*A1</f>
+        <v>328</v>
       </c>
       <c r="E1">
         <v>8</v>
       </c>
       <c r="F1">
-        <f>G1</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G1">
-        <f>E1</f>
-        <v>8</v>
+        <f>F1*E1</f>
+        <v>328</v>
       </c>
       <c r="I1">
         <v>8</v>
@@ -398,48 +396,60 @@
         <v>328</v>
       </c>
       <c r="M1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1">
         <v>41</v>
       </c>
       <c r="O1">
         <f>N1*M1</f>
-        <v>328</v>
-      </c>
-      <c r="Q1">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="R1">
         <v>41</v>
       </c>
       <c r="S1">
         <f>R1*Q1</f>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>41</v>
+      </c>
+      <c r="W1">
+        <f>V1*U1</f>
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>7</v>
+      </c>
+      <c r="Z1">
+        <v>41</v>
+      </c>
+      <c r="AA1">
+        <f>Z1*Y1</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>C2</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <f>A2</f>
+        <f t="shared" ref="C2:C9" si="0">B2*A2</f>
         <v>0</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <f>G2</f>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <f>E2</f>
-        <v>6</v>
+        <f t="shared" ref="G2:G9" si="1">F2*E2</f>
+        <v>222</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,51 +458,69 @@
         <v>37</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" si="0">J2*I2</f>
+        <f t="shared" ref="K2:K9" si="2">J2*I2</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>37</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O9" si="1">N2*M2</f>
-        <v>222</v>
+        <f t="shared" ref="O2:O9" si="3">N2*M2</f>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R2">
         <v>37</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S9" si="2">R2*Q2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <f>R2*Q2</f>
+        <v>296</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>37</v>
+      </c>
+      <c r="W2">
+        <f>V2*U2</f>
+        <v>333</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>37</v>
+      </c>
+      <c r="AA2">
+        <f>Z2*Y2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>C3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <f>G3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <f>E3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3">
@@ -502,7 +530,7 @@
         <v>29</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M3">
@@ -512,7 +540,7 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q3">
@@ -522,31 +550,49 @@
         <v>29</v>
       </c>
       <c r="S3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <f>R3*Q3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>29</v>
+      </c>
+      <c r="W3">
+        <f>V3*U3</f>
+        <v>116</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>29</v>
+      </c>
+      <c r="AA3">
+        <f>Z3*Y3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>C4</f>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <f>A4</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f>G4</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <f>E4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -556,461 +602,929 @@
         <v>23</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>23</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <v>23</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <f>R4*Q4</f>
+        <v>184</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <f>V4*U4</f>
+        <v>23</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>23</v>
+      </c>
+      <c r="AA4">
+        <f>Z4*Y4</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <f>C5</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <f>A5</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <f>G5</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <f>E5</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>133</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>19</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>19</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>19</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <f>R5*Q5</f>
+        <v>133</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>19</v>
+      </c>
+      <c r="W5">
+        <f>V5*U5</f>
+        <v>171</v>
+      </c>
+      <c r="Y5">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>19</v>
+      </c>
+      <c r="AA5">
+        <f>Z5*Y5</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <f>C6</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6">
-        <f>G6</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <f>E6</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>153</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>17</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>17</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>153</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R6">
         <v>17</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f>R6*Q6</f>
+        <v>153</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <f>V6*U6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>17</v>
+      </c>
+      <c r="AA6">
+        <f>Z6*Y6</f>
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <f>C7</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <f>A7</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <f>G7</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <f>E7</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>13</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>13</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>13</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <f>R7*Q7</f>
+        <v>65</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>13</v>
+      </c>
+      <c r="W7">
+        <f>V7*U7</f>
+        <v>104</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>13</v>
+      </c>
+      <c r="AA7">
+        <f>Z7*Y7</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <f>C8</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <f>A8</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <f>G8</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <f>E8</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <f>R8*Q8</f>
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f>V8*U8</f>
+        <v>49</v>
+      </c>
+      <c r="Y8">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <f>Z8*Y8</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <f>C9</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <f>A9</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <f>G9</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <f>E9</f>
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Q9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>C10</f>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f>A10</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>G10</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <f>SUM(B1,B3,B5,B7,B9)</f>
-        <v>21</v>
-      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <f>R9*Q9</f>
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <f>V9*U9</f>
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <f>Z9*Y9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <f>SUM(C2,C4,C6,C8,C10)</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <f>SUM(F1,F3,F5,F7,F9)</f>
-        <v>27</v>
+        <f>SUM(C1:C10)</f>
+        <v>591</v>
       </c>
       <c r="G11" s="1">
-        <f>SUM(G2,G4,G6,G8,G10)</f>
-        <v>16</v>
+        <f>SUM(G1:G10)</f>
+        <v>939</v>
       </c>
       <c r="K11" s="1">
         <f>SUM(K1:K10)</f>
-        <v>591</v>
+        <v>521</v>
       </c>
       <c r="O11" s="1">
         <f>SUM(O1:O10)</f>
-        <v>939</v>
+        <v>478</v>
       </c>
       <c r="S11" s="1">
         <f>SUM(S1:S10)</f>
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>B11*3</f>
-        <v>63</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="W11" s="1">
+        <f>SUM(W1:W10)</f>
+        <v>802</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>SUM(AA1:AA10)</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f>C11*3</f>
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <f>F11*3</f>
-        <v>81</v>
+        <f>C11/11</f>
+        <v>53.727272727272727</v>
       </c>
       <c r="G12">
-        <f>G11*3</f>
-        <v>48</v>
+        <f>G11/11</f>
+        <v>85.36363636363636</v>
       </c>
       <c r="K12">
         <f>K11/11</f>
-        <v>53.727272727272727</v>
+        <v>47.363636363636367</v>
       </c>
       <c r="O12">
         <f>O11/11</f>
-        <v>85.36363636363636</v>
+        <v>43.454545454545453</v>
       </c>
       <c r="S12">
         <f>S11/11</f>
-        <v>47.363636363636367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77.545454545454547</v>
+      </c>
+      <c r="W12">
+        <f>W11/11</f>
+        <v>72.909090909090907</v>
+      </c>
+      <c r="AA12">
+        <f>AA11/11</f>
+        <v>61.272727272727273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C12 - TRUNC(C12)</f>
+        <v>0.72727272727272663</v>
+      </c>
+      <c r="G13">
+        <f>G12 - TRUNC(G12)</f>
+        <v>0.36363636363635976</v>
+      </c>
       <c r="K13">
         <f>K12 - TRUNC(K12)</f>
-        <v>0.72727272727272663</v>
+        <v>0.36363636363636687</v>
       </c>
       <c r="O13">
         <f>O12 - TRUNC(O12)</f>
-        <v>0.36363636363635976</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="S13">
         <f>S12 - TRUNC(S12)</f>
-        <v>0.36363636363636687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>C11+B12</f>
-        <v>69</v>
-      </c>
+        <v>0.54545454545454675</v>
+      </c>
+      <c r="W13">
+        <f>W12 - TRUNC(W12)</f>
+        <v>0.90909090909090651</v>
+      </c>
+      <c r="AA13">
+        <f>AA12 - TRUNC(AA12)</f>
+        <v>0.27272727272727337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f>C12+B11</f>
-        <v>39</v>
-      </c>
-      <c r="F14">
-        <f>G11+F12</f>
-        <v>97</v>
+        <f>C13*11</f>
+        <v>7.9999999999999929</v>
       </c>
       <c r="G14">
-        <f>G12+F11</f>
-        <v>75</v>
+        <f>G13*11</f>
+        <v>3.9999999999999574</v>
       </c>
       <c r="K14">
         <f>K13*11</f>
-        <v>7.9999999999999929</v>
+        <v>4.0000000000000355</v>
       </c>
       <c r="O14">
         <f>O13*11</f>
-        <v>3.9999999999999574</v>
+        <v>4.9999999999999858</v>
       </c>
       <c r="S14">
         <f>S13*11</f>
-        <v>4.0000000000000355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6.0000000000000142</v>
+      </c>
+      <c r="W14">
+        <f>W13*11</f>
+        <v>9.9999999999999716</v>
+      </c>
+      <c r="AA14">
+        <f>AA13*11</f>
+        <v>3.0000000000000071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="C15">
-        <v>1</v>
+        <f>11-C14</f>
+        <v>3.0000000000000071</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
       <c r="G15">
-        <v>5</v>
+        <f>11-G14</f>
+        <v>7.0000000000000426</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K15">
         <f>11-K14</f>
-        <v>3.0000000000000071</v>
+        <v>6.9999999999999645</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15">
         <f>11-O14</f>
-        <v>7.0000000000000426</v>
+        <v>6.0000000000000142</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S15">
         <f>11-S14</f>
-        <v>6.9999999999999645</v>
+        <v>4.9999999999999858</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f>11-W14</f>
+        <v>1.0000000000000284</v>
+      </c>
+      <c r="Y15">
+        <v>8</v>
+      </c>
+      <c r="AA15">
+        <f>11-AA14</f>
+        <v>7.9999999999999929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C23" si="4">B18*A18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G23" si="5">F18*E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>43</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <f>B24*A24</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>41</v>
+      </c>
+      <c r="G24">
+        <f>F24*E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <f>B25*A25</f>
+        <v>111</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <f>F25*E25</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <f>B26*A26</f>
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <f>F26*E26</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <f>B27*A27</f>
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <f>F27*E27</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <f>B28*A28</f>
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <f>F28*E28</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <f>B29*A29</f>
+        <v>136</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <f>F29*E29</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <f>B30*A30</f>
+        <v>78</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <f>F30*E30</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f>B31*A31</f>
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <f>F31*E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f>B32*A32</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f>F32*E32</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f>SUM(C18:C32)</f>
+        <v>625</v>
+      </c>
+      <c r="G33" s="1">
+        <f>SUM(G18:G32)</f>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>C33/11</f>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="G34">
+        <f>G33/11</f>
+        <v>56.727272727272727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>C34 - TRUNC(C34)</f>
+        <v>0.81818181818182012</v>
+      </c>
+      <c r="G35">
+        <f>G34 - TRUNC(G34)</f>
+        <v>0.72727272727272663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>C35*11</f>
+        <v>9.0000000000000213</v>
+      </c>
+      <c r="G36">
+        <f>G35*11</f>
+        <v>7.9999999999999929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f>11-C36</f>
+        <v>1.9999999999999787</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f>11-G36</f>
+        <v>3.0000000000000071</v>
       </c>
     </row>
   </sheetData>
@@ -1043,6 +1557,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B806ED5381FBCD4D894D9EE25B8A2268" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47d241bf693db89b3f801ca22f4e2ac8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9678eb71-0bf2-47d3-aca1-293c84b750f0" xmlns:ns3="4e945978-3025-4ac8-a3ab-7b97ac71b04d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7817fd2661ada14fab19c8e3187217e3" ns2:_="" ns3:_="">
     <xsd:import namespace="9678eb71-0bf2-47d3-aca1-293c84b750f0"/>
@@ -1273,19 +1796,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C80F8-FE2B-41DC-BA65-796C88E193EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553159AC-8D0F-454E-BB9E-183211030B14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553159AC-8D0F-454E-BB9E-183211030B14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C80F8-FE2B-41DC-BA65-796C88E193EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9678eb71-0bf2-47d3-aca1-293c84b750f0"/>
+    <ds:schemaRef ds:uri="4e945978-3025-4ac8-a3ab-7b97ac71b04d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>